--- a/dataset et tests/Comparaison matrice Perceptron simple.xlsx
+++ b/dataset et tests/Comparaison matrice Perceptron simple.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Code_Projet_Data/Repository_Alix/Projet_data/dataset et tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADCE53A-58C3-214F-ADDA-B85A476FF4E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="20940" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
   <si>
     <t>penalty</t>
+  </si>
+  <si>
+    <t>Number of splits</t>
   </si>
   <si>
     <t>AUC</t>
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Recall</t>
   </si>
   <si>
     <t>l1</t>
@@ -40,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +88,52 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -124,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +207,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +259,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="168" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,52 +474,636 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0.996471</v>
-      </c>
       <c r="C2">
-        <v>0.9122807017543859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.99446299999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.96491228070175439</v>
+      </c>
+      <c r="E2">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0.99904300000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.93274853801169588</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.99656500000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.97660818713450293</v>
+      </c>
+      <c r="E4">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.99442600000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.96198830409356728</v>
+      </c>
+      <c r="E5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0.995627</v>
-      </c>
-      <c r="C3">
-        <v>0.9210526315789473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.972992</v>
-      </c>
-      <c r="C4">
-        <v>0.7894736842105263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.994688</v>
-      </c>
-      <c r="C5">
-        <v>0.9269005847953217</v>
+      <c r="C6">
+        <v>0.99545799999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.96198830409356728</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.99247399999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.94152046783625731</v>
+      </c>
+      <c r="E7">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.97956100000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.80409356725146197</v>
+      </c>
+      <c r="E8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0.99485699999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.96491228070175439</v>
+      </c>
+      <c r="E9">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0.99731599999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.9707602339181286</v>
+      </c>
+      <c r="E10">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.99607699999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.95906432748538006</v>
+      </c>
+      <c r="E11">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.99583299999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.95321637426900585</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0.99639599999999995</v>
+      </c>
+      <c r="D13">
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="E13">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0.99541999999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.86257309941520466</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0.99562700000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.95906432748538006</v>
+      </c>
+      <c r="E15">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0.99480100000000005</v>
+      </c>
+      <c r="D16">
+        <v>0.92397660818713445</v>
+      </c>
+      <c r="E16">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0.99787899999999996</v>
+      </c>
+      <c r="D17">
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="E17">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.99010900000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.95029239766081874</v>
+      </c>
+      <c r="E18">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0.99498900000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.96491228070175439</v>
+      </c>
+      <c r="E19">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0.99149799999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.95321637426900585</v>
+      </c>
+      <c r="E20">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0.99253000000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.93859649122807021</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0.99735399999999996</v>
+      </c>
+      <c r="D22">
+        <v>0.9707602339181286</v>
+      </c>
+      <c r="E22">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0.99540200000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.9707602339181286</v>
+      </c>
+      <c r="E23">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0.99774799999999997</v>
+      </c>
+      <c r="D24">
+        <v>0.97660818713450293</v>
+      </c>
+      <c r="E24">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0.99686600000000003</v>
+      </c>
+      <c r="D25">
+        <v>0.96783625730994149</v>
+      </c>
+      <c r="E25">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>0.99541999999999997</v>
+      </c>
+      <c r="D26">
+        <v>0.95906432748538006</v>
+      </c>
+      <c r="E26">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0.99543899999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.96491228070175439</v>
+      </c>
+      <c r="E27">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0.99731599999999998</v>
+      </c>
+      <c r="D28">
+        <v>0.97660818713450293</v>
+      </c>
+      <c r="E28">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0.99677199999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.92397660818713445</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0.99457600000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.93567251461988299</v>
+      </c>
+      <c r="E30">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>0.99829199999999996</v>
+      </c>
+      <c r="D31">
+        <v>0.95321637426900585</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>0.99782300000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.9707602339181286</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0.99566399999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="E33">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.995533</v>
+      </c>
+      <c r="D34">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>0.99662200000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.97368421052631582</v>
+      </c>
+      <c r="E35">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>0.99802900000000005</v>
+      </c>
+      <c r="D36">
+        <v>0.96198830409356728</v>
+      </c>
+      <c r="E36">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0.99662200000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.95906432748538006</v>
+      </c>
+      <c r="E37">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0.997</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>